--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -74,9 +74,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +357,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -369,30 +369,47 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43272</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaschapman/Documents/UROP/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F7714-A3A2-4918-BF97-EEEF058B64F4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -86,6 +87,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -353,19 +357,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +382,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43272</v>
       </c>
@@ -395,7 +399,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43273</v>
       </c>
@@ -412,49 +416,63 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaschapman/Documents/UROP/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F7714-A3A2-4918-BF97-EEEF058B64F4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -357,16 +356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -434,7 +433,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Arpit</t>
+  </si>
+  <si>
+    <t>17:00:00 am</t>
+  </si>
+  <si>
+    <t>16:30:00 am</t>
   </si>
 </sst>
 </file>
@@ -357,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -368,79 +374,62 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43272</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.20833333333333334</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43273</v>
+        <v>43272</v>
       </c>
       <c r="B3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.1875</v>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>0.39583333333333331</v>
       </c>
       <c r="E3" s="2">
-        <v>0.1875</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43276</v>
+        <v>43273</v>
       </c>
       <c r="B4" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E4" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43277</v>
+        <v>43276</v>
       </c>
       <c r="B5" s="2">
         <v>0.375</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.1875</v>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>0.375</v>
@@ -450,10 +439,38 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.21875</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -488,10 +505,13 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>Arpit</t>
-  </si>
-  <si>
-    <t>17:00:00 am</t>
-  </si>
-  <si>
-    <t>16:30:00 am</t>
   </si>
 </sst>
 </file>
@@ -366,7 +360,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -394,8 +388,8 @@
       <c r="B3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+      <c r="C3" s="2">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D3" s="2">
         <v>0.39583333333333331</v>
@@ -411,8 +405,8 @@
       <c r="B4" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
+      <c r="C4" s="2">
+        <v>0.1875</v>
       </c>
       <c r="D4" s="2">
         <v>0.39583333333333331</v>
@@ -428,8 +422,8 @@
       <c r="B5" s="2">
         <v>0.375</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
+      <c r="C5" s="2">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D5" s="2">
         <v>0.375</v>
@@ -445,8 +439,8 @@
       <c r="B6" s="2">
         <v>0.375</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
+      <c r="C6" s="2">
+        <v>0.1875</v>
       </c>
       <c r="D6" s="2">
         <v>0.375</v>
@@ -462,8 +456,8 @@
       <c r="B7" s="2">
         <v>0.375</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
+      <c r="C7" s="2">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D7" s="2">
         <v>0.38541666666666669</v>
@@ -473,7 +467,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaschapman/Documents/UROP/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134084E-755B-4514-994E-A54F3656C90C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -356,16 +357,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,7 +485,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaschapman/Documents/UROP/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134084E-755B-4514-994E-A54F3656C90C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -357,16 +356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,10 +501,32 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3923611111111111</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,15 +524,49 @@
       <c r="B11" s="2">
         <v>0.38194444444444442</v>
       </c>
+      <c r="C11" s="2">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="D11" s="2">
         <v>0.3923611111111111</v>
       </c>
+      <c r="E11" s="2">
+        <v>0.23611111111111113</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaschapman/Documents/UROP/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C64C0B0-6899-4004-A6D6-D3C8B95575F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -37,11 +38,20 @@
   <si>
     <t>Arpit</t>
   </si>
+  <si>
+    <t>9:15?</t>
+  </si>
+  <si>
+    <t>3:30?</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -71,12 +81,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,16 +372,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,10 +585,35 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>43287</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>43289</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.38541666666666669</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C64C0B0-6899-4004-A6D6-D3C8B95575F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94D980-0728-4BBA-AA48-E7E7977ED788}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -85,14 +85,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -388,14 +388,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -588,43 +588,85 @@
       <c r="A14" s="1">
         <v>43287</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43289</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>43290</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2">
         <v>0.38541666666666669</v>
       </c>
+      <c r="E15" s="2">
+        <v>0.23611111111111113</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43291</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43292</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43293</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94D980-0728-4BBA-AA48-E7E7977ED788}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A21999-AF4D-4BEE-A872-4A5C9290AD2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>16/07/2018</t>
   </si>
 </sst>
 </file>
@@ -81,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -93,6 +96,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,9 +669,40 @@
       <c r="D18" s="2">
         <v>0.375</v>
       </c>
+      <c r="E18" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>43294</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.3125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94D980-0728-4BBA-AA48-E7E7977ED788}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15AB152-4761-4283-927F-17548E9223F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>16/07/2018</t>
   </si>
 </sst>
 </file>
@@ -81,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -93,6 +96,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,9 +669,40 @@
       <c r="D18" s="2">
         <v>0.375</v>
       </c>
+      <c r="E18" s="2">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>43294</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.3125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A21999-AF4D-4BEE-A872-4A5C9290AD2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1FCD5-7296-4708-BB34-DFE1F7C4A4CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -392,14 +392,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -691,7 +691,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -702,6 +702,9 @@
       </c>
       <c r="D20" s="2">
         <v>0.3125</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.14583333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1FCD5-7296-4708-BB34-DFE1F7C4A4CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5052C0-F53D-4466-9A2D-BB6F44B8ACFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
         <v>0.3125</v>
       </c>
       <c r="E20" s="2">
-        <v>0.14583333333333334</v>
+        <v>0.17708333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5052C0-F53D-4466-9A2D-BB6F44B8ACFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871ABF1D-11CA-4769-A649-0258D188B64F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -94,9 +94,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E20"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -392,14 +394,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -691,7 +693,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -705,6 +707,20 @@
       </c>
       <c r="E20" s="2">
         <v>0.17708333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43298</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871ABF1D-11CA-4769-A649-0258D188B64F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CB2FA-302B-445E-8995-046782B5DA9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Arpit</t>
-  </si>
-  <si>
-    <t>9:15?</t>
-  </si>
-  <si>
-    <t>3:30?</t>
   </si>
   <si>
     <t>N/A</t>
@@ -94,11 +88,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -394,14 +388,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -411,13 +405,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="2">
         <v>0.39583333333333331</v>
       </c>
       <c r="E3" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -428,13 +422,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C4" s="2">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="D4" s="2">
         <v>0.39583333333333331</v>
       </c>
       <c r="E4" s="2">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -445,13 +439,13 @@
         <v>0.375</v>
       </c>
       <c r="C5" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D5" s="2">
         <v>0.375</v>
       </c>
       <c r="E5" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,13 +456,13 @@
         <v>0.375</v>
       </c>
       <c r="C6" s="2">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="D6" s="2">
         <v>0.375</v>
       </c>
       <c r="E6" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -479,13 +473,13 @@
         <v>0.375</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E7" s="2">
-        <v>0.21875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,13 +490,13 @@
         <v>0.375</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D8" s="2">
         <v>0.375</v>
       </c>
       <c r="E8" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,13 +507,13 @@
         <v>0.375</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D9" s="2">
         <v>0.375</v>
       </c>
       <c r="E9" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,13 +524,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C10" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D10" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E10" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,13 +541,13 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="C11" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D11" s="2">
         <v>0.3923611111111111</v>
       </c>
       <c r="E11" s="2">
-        <v>0.23611111111111113</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,13 +558,13 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="C12" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D12" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E12" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,30 +575,30 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="C13" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D13" s="2">
         <v>0.375</v>
       </c>
       <c r="E13" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43287</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
+      <c r="B14" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.64583333333333337</v>
       </c>
       <c r="D14" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="4">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,16 +606,16 @@
         <v>43290</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E15" s="2">
-        <v>0.23611111111111113</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,16 +623,16 @@
         <v>43291</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E16" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,16 +640,16 @@
         <v>43292</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,16 +657,16 @@
         <v>43293</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
         <v>0.375</v>
       </c>
       <c r="E18" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -680,33 +674,33 @@
         <v>43294</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
         <v>0.375</v>
       </c>
       <c r="E19" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>6</v>
+      <c r="A20" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
         <v>0.3125</v>
       </c>
       <c r="E20" s="2">
-        <v>0.17708333333333334</v>
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,13 +708,16 @@
         <v>43298</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
         <v>0.3125</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871ABF1D-11CA-4769-A649-0258D188B64F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0275B07A-02E9-4517-B368-F2986B950319}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Arpit</t>
-  </si>
-  <si>
-    <t>9:15?</t>
-  </si>
-  <si>
-    <t>3:30?</t>
   </si>
   <si>
     <t>N/A</t>
@@ -94,11 +88,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -394,14 +388,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -411,13 +405,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="2">
         <v>0.39583333333333331</v>
       </c>
       <c r="E3" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -428,13 +422,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C4" s="2">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="D4" s="2">
         <v>0.39583333333333331</v>
       </c>
       <c r="E4" s="2">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -445,13 +439,13 @@
         <v>0.375</v>
       </c>
       <c r="C5" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D5" s="2">
         <v>0.375</v>
       </c>
       <c r="E5" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,13 +456,13 @@
         <v>0.375</v>
       </c>
       <c r="C6" s="2">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="D6" s="2">
         <v>0.375</v>
       </c>
       <c r="E6" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -479,13 +473,13 @@
         <v>0.375</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E7" s="2">
-        <v>0.21875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,13 +490,13 @@
         <v>0.375</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D8" s="2">
         <v>0.375</v>
       </c>
       <c r="E8" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,13 +507,13 @@
         <v>0.375</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D9" s="2">
         <v>0.375</v>
       </c>
       <c r="E9" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,13 +524,13 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C10" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D10" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E10" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,13 +541,13 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="C11" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D11" s="2">
         <v>0.3923611111111111</v>
       </c>
       <c r="E11" s="2">
-        <v>0.23611111111111113</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,13 +558,13 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="C12" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D12" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E12" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,30 +575,30 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="C13" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D13" s="2">
         <v>0.375</v>
       </c>
       <c r="E13" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43287</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
+      <c r="B14" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.66666666666666663</v>
       </c>
       <c r="D14" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="4">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,16 +606,16 @@
         <v>43290</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E15" s="2">
-        <v>0.23611111111111113</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,16 +623,16 @@
         <v>43291</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
         <v>0.38541666666666669</v>
       </c>
       <c r="E16" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,16 +640,16 @@
         <v>43292</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,16 +657,16 @@
         <v>43293</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
         <v>0.375</v>
       </c>
       <c r="E18" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -680,33 +674,33 @@
         <v>43294</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
         <v>0.375</v>
       </c>
       <c r="E19" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>6</v>
+      <c r="A20" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
         <v>0.3125</v>
       </c>
       <c r="E20" s="2">
-        <v>0.17708333333333334</v>
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,13 +708,16 @@
         <v>43298</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
         <v>0.3125</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0275B07A-02E9-4517-B368-F2986B950319}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF95DC-C310-4EA4-B59D-185BB97E41EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,6 +720,57 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43299</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43305</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaschapman/Documents/UROP/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF95DC-C310-4EA4-B59D-185BB97E41EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -372,16 +371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,6 +768,23 @@
       </c>
       <c r="E24" s="2">
         <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43308</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.10416666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaschapman/Documents/UROP/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEE98EF-2CCB-4505-9C45-B999C8641237}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -371,19 +372,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -396,7 +397,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43272</v>
       </c>
@@ -413,7 +414,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43273</v>
       </c>
@@ -430,7 +431,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43276</v>
       </c>
@@ -447,7 +448,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43277</v>
       </c>
@@ -464,7 +465,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43278</v>
       </c>
@@ -481,7 +482,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43279</v>
       </c>
@@ -498,7 +499,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43280</v>
       </c>
@@ -515,7 +516,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43283</v>
       </c>
@@ -532,7 +533,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43284</v>
       </c>
@@ -549,7 +550,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43285</v>
       </c>
@@ -566,7 +567,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43286</v>
       </c>
@@ -583,7 +584,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43287</v>
       </c>
@@ -600,7 +601,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43290</v>
       </c>
@@ -617,7 +618,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43291</v>
       </c>
@@ -634,7 +635,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43292</v>
       </c>
@@ -651,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43293</v>
       </c>
@@ -668,7 +669,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43294</v>
       </c>
@@ -685,7 +686,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -702,7 +703,7 @@
         <v>0.67708333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43298</v>
       </c>
@@ -719,7 +720,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43299</v>
       </c>
@@ -736,7 +737,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43300</v>
       </c>
@@ -753,7 +754,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43305</v>
       </c>
@@ -770,7 +771,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43308</v>
       </c>
@@ -785,6 +786,25 @@
       </c>
       <c r="E25" s="2">
         <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43312</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43314</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpit\Desktop\UROP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEE98EF-2CCB-4505-9C45-B999C8641237}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B09701-9D71-463C-BD27-17128E87F4B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -397,7 +397,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43272</v>
       </c>
@@ -414,7 +414,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43273</v>
       </c>
@@ -431,7 +431,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43276</v>
       </c>
@@ -448,7 +448,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43277</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43278</v>
       </c>
@@ -482,7 +482,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43279</v>
       </c>
@@ -499,7 +499,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43280</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43283</v>
       </c>
@@ -533,7 +533,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43284</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43285</v>
       </c>
@@ -567,7 +567,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43286</v>
       </c>
@@ -584,7 +584,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43287</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43290</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43291</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43292</v>
       </c>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43293</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43294</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -703,7 +703,7 @@
         <v>0.67708333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43298</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43299</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43300</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43305</v>
       </c>
@@ -792,6 +792,12 @@
       <c r="A26" s="1">
         <v>43312</v>
       </c>
+      <c r="B26" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D26" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -802,6 +808,12 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43314</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.20833333333333334</v>
       </c>
       <c r="D27" s="2">
         <v>0.3125</v>
